--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">11/05/2024, 19:54:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/05/2024, 21:33:50</t>
   </si>
 </sst>
 </file>
@@ -649,13 +652,30 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
     </row>

--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{505E1F97-1F1D-4690-A0E1-BCF572E0D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}" activeTab="0"/>
+    <workbookView xWindow="6885" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -50,88 +50,12 @@
   <si>
     <t>Professor</t>
   </si>
-  <si>
-    <t xml:space="preserve">Gabriel da Silva Eustaquio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:39:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nenhum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pr Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:41:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste Jr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:50:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:52:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guilherme e LK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jennifer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:53:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas e Lidia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:53:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:53:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:53:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 19:54:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2024, 21:33:50</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts/>
-  <fonts x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills>
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -160,7 +84,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55317E4C-A6FE-4350-8993-108C4DC1C7A1}">
-  <sheetPr/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -509,176 +433,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{505E1F97-1F1D-4690-A0E1-BCF572E0D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB53C2D-EC9C-46C5-9CEF-3E740F62FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
+    <workbookView xWindow="2490" yWindow="2250" windowWidth="13680" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Professor</t>
+  </si>
+  <si>
+    <t>Aula</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55317E4C-A6FE-4350-8993-108C4DC1C7A1}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +419,7 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,6 +434,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB53C2D-EC9C-46C5-9CEF-3E740F62FC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1751D7E2-E6EF-4211-9320-064BD2AB8302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2250" windowWidth="13680" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -52,6 +52,90 @@
   </si>
   <si>
     <t>Aula</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Taciana Oliveira</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:06:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhum </t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Aula 04</t>
+  </si>
+  <si>
+    <t>Cíntia Andrade</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:07:21</t>
+  </si>
+  <si>
+    <t>Stefanie Carvalho Stefano</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:07:29</t>
+  </si>
+  <si>
+    <t>Sibério Batista</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:07:40</t>
+  </si>
+  <si>
+    <t>Larissa Lopes Ferreira</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:08:13</t>
+  </si>
+  <si>
+    <t>Pedro Schimidt</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:08:55</t>
+  </si>
+  <si>
+    <t>Israel maximus</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:10:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela do Nascimento </t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:18:32</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Bianca Gabrielli</t>
+  </si>
+  <si>
+    <t>26/05/2024 18:23:24</t>
+  </si>
+  <si>
+    <t>Vinicius Amorim</t>
+  </si>
+  <si>
+    <t>26/05/2024, 18:23:42</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>26/05/2024 18:25:27</t>
   </si>
 </sst>
 </file>
@@ -403,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55317E4C-A6FE-4350-8993-108C4DC1C7A1}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +523,226 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/checkin.xlsx
+++ b/checkin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E76D05-2C01-4907-8D62-DE2A9D9E5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2426427-EB32-4917-9AAF-BBF61DF958EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6525" yWindow="3045" windowWidth="13680" windowHeight="11385" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CDD81FA-FDDB-43AA-A8E8-F51857A3DE54}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome Completo</t>
   </si>
@@ -52,84 +52,6 @@
   </si>
   <si>
     <t>Aula</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Taciana Oliveira</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:06:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nenhum </t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>Aula 04</t>
-  </si>
-  <si>
-    <t>Cíntia Andrade</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:07:21</t>
-  </si>
-  <si>
-    <t>Stefanie Carvalho Stefano</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:07:29</t>
-  </si>
-  <si>
-    <t>Sibério Batista</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:07:40</t>
-  </si>
-  <si>
-    <t>Larissa Lopes Ferreira</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:08:13</t>
-  </si>
-  <si>
-    <t>Pedro Schimidt</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:08:55</t>
-  </si>
-  <si>
-    <t>Israel maximus</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:10:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela do Nascimento </t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:18:32</t>
-  </si>
-  <si>
-    <t>Bianca Gabrielli</t>
-  </si>
-  <si>
-    <t>26/05/2024 18:23:24</t>
-  </si>
-  <si>
-    <t>Vinicius Amorim</t>
-  </si>
-  <si>
-    <t>26/05/2024, 18:23:42</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>26/05/2024 18:25:27</t>
   </si>
 </sst>
 </file>
@@ -481,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55317E4C-A6FE-4350-8993-108C4DC1C7A1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,226 +439,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
